--- a/IPL/Rajasthan Royals/Tom Curran .xlsx
+++ b/IPL/Rajasthan Royals/Tom Curran .xlsx
@@ -408,16 +408,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D2" t="str">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -428,10 +428,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
@@ -448,10 +448,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <v>1</v>
@@ -468,16 +468,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C5" t="str">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D5" t="str">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/IPL/Rajasthan Royals/Tom Curran .xlsx
+++ b/IPL/Rajasthan Royals/Tom Curran .xlsx
@@ -408,10 +408,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2" t="str">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>1</v>
@@ -448,10 +448,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E4" t="str">
         <v>1</v>
